--- a/Dokumentation/UserStories/UserStoryTeam3.xlsx
+++ b/Dokumentation/UserStories/UserStoryTeam3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gandalf\Kommunikationschueler\4AHIFS\SYP-PRE (nicht SEP)\Scrum_Projekte\Gruppe3\UserStories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A8C9D9-08F4-47B2-9EC0-2098BA1FC608}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33E7AD0-3E65-4F12-9C06-6C4CCB404908}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{05B95832-AEB2-4C46-A968-175086D4E73C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{05B95832-AEB2-4C46-A968-175086D4E73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>Status:</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Artikel bearbeiten</t>
   </si>
   <si>
-    <t>Artikel löschen</t>
-  </si>
-  <si>
     <t>User löschen</t>
   </si>
   <si>
@@ -90,18 +87,6 @@
     <t>Alle Artikel ansehen</t>
   </si>
   <si>
-    <t>Benachrichtigungen ansehen</t>
-  </si>
-  <si>
-    <t>Benachrichtigungen löschen</t>
-  </si>
-  <si>
-    <t>Stornien</t>
-  </si>
-  <si>
-    <t>innerhalb 14 Tagen</t>
-  </si>
-  <si>
     <t>alles außer Username</t>
   </si>
   <si>
@@ -109,6 +94,9 @@
   </si>
   <si>
     <t>Konto löschen</t>
+  </si>
+  <si>
+    <t>Order ansehen</t>
   </si>
 </sst>
 </file>
@@ -490,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C103B7B-8A3F-405A-996D-44FF828E87D4}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +512,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -541,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,7 +578,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -622,37 +610,16 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -722,18 +689,14 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>10</v>
@@ -744,7 +707,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -755,7 +718,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -766,7 +729,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>10</v>
@@ -776,26 +739,12 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
